--- a/results/ANZ.xlsx
+++ b/results/ANZ.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P139"/>
+  <dimension ref="A1:P183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7198,6 +7198,2126 @@
       </c>
       <c r="P139" t="n">
         <v>-21.31880265606852</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>40</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>0.5943556427955627</v>
+      </c>
+      <c r="E140" t="n">
+        <v>14.74038404742734</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>15.56884444995455</v>
+      </c>
+      <c r="H140" t="n">
+        <v>52</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-6.400967624861445</v>
+      </c>
+      <c r="J140" t="n">
+        <v>21</v>
+      </c>
+      <c r="K140" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>0.8284604025272131</v>
+      </c>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>87</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>0.6868894696235657</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-21.63096045823303</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>16.06972453276799</v>
+      </c>
+      <c r="H141" t="n">
+        <v>18</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-21.63096045823303</v>
+      </c>
+      <c r="J141" t="n">
+        <v>52</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>48</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-11.51884143940872</v>
+      </c>
+      <c r="N141" t="n">
+        <v>37.70068499100101</v>
+      </c>
+      <c r="O141" t="n">
+        <v>10.1121190188243</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-27.58856597217671</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>131</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>0.6812341213226318</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-18.30681765287056</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>7.712420361710166e-06</v>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-35.68626603478875</v>
+      </c>
+      <c r="J142" t="n">
+        <v>21</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>4</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-10.78430428974456</v>
+      </c>
+      <c r="N142" t="n">
+        <v>18.30682536529092</v>
+      </c>
+      <c r="O142" t="n">
+        <v>7.522513363125997</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-10.78431200216492</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>170</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>0.5466697812080383</v>
+      </c>
+      <c r="E143" t="n">
+        <v>21.96961990370924</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>29.74021969061298</v>
+      </c>
+      <c r="H143" t="n">
+        <v>39</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-13.58972157520196</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>7.770599786903734</v>
+      </c>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>270</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>0.5616546273231506</v>
+      </c>
+      <c r="E144" t="n">
+        <v>41.36629084513522</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>66.36578941252368</v>
+      </c>
+      <c r="H144" t="n">
+        <v>44</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-4.532570535694183</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>24.99949856738846</v>
+      </c>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>366</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>0.7646740674972534</v>
+      </c>
+      <c r="E145" t="n">
+        <v>68.31979354439616</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>68.31979354439616</v>
+      </c>
+      <c r="H145" t="n">
+        <v>52</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-1.162788929146835</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>565</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>2.040345191955566</v>
+      </c>
+      <c r="E146" t="n">
+        <v>31.7471091963989</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>38.36070746726218</v>
+      </c>
+      <c r="H146" t="n">
+        <v>22</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>37</v>
+      </c>
+      <c r="M146" t="n">
+        <v>13.8834643556753</v>
+      </c>
+      <c r="N146" t="n">
+        <v>6.613598270863282</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-17.8636448407236</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-24.47724311158689</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>626</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>2.53576397895813</v>
+      </c>
+      <c r="E147" t="n">
+        <v>43.74214736786681</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>49.56559875834372</v>
+      </c>
+      <c r="H147" t="n">
+        <v>45</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-10.07395591530902</v>
+      </c>
+      <c r="J147" t="n">
+        <v>4</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>3</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-6.56195393561253</v>
+      </c>
+      <c r="N147" t="n">
+        <v>5.823451390476905</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-50.30410130347934</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-56.12755269395625</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>644</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>2.967638492584229</v>
+      </c>
+      <c r="E148" t="n">
+        <v>30.70791628431761</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>33.35614586764699</v>
+      </c>
+      <c r="H148" t="n">
+        <v>38</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-5.344130623332822</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>2.648229583329382</v>
+      </c>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>682</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>3.893538236618042</v>
+      </c>
+      <c r="E149" t="n">
+        <v>20.2405680154345</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>23.88021839909436</v>
+      </c>
+      <c r="H149" t="n">
+        <v>38</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-15.04425328026354</v>
+      </c>
+      <c r="J149" t="n">
+        <v>7</v>
+      </c>
+      <c r="K149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>3.639650383659859</v>
+      </c>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>708</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>4.256755828857422</v>
+      </c>
+      <c r="E150" t="n">
+        <v>15.63938602882202</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>28.60467625048464</v>
+      </c>
+      <c r="H150" t="n">
+        <v>42</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-17.33722558505474</v>
+      </c>
+      <c r="J150" t="n">
+        <v>4</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>47</v>
+      </c>
+      <c r="M150" t="n">
+        <v>14.58918632150503</v>
+      </c>
+      <c r="N150" t="n">
+        <v>12.96529022166263</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-1.050199707316986</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-14.01548992897961</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>743</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>5.01656436920166</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5.429543354316497</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>9.126219651137852</v>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-15.71280172534043</v>
+      </c>
+      <c r="J151" t="n">
+        <v>43</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>12</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-2.766485008599403</v>
+      </c>
+      <c r="N151" t="n">
+        <v>3.696676296821355</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-8.1960283629159</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-11.89270465973726</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>802</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>5.271524429321289</v>
+      </c>
+      <c r="E152" t="n">
+        <v>6.140709683091775</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>9.83615256123926</v>
+      </c>
+      <c r="H152" t="n">
+        <v>43</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-10.84022963879612</v>
+      </c>
+      <c r="J152" t="n">
+        <v>21</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>10</v>
+      </c>
+      <c r="M152" t="n">
+        <v>-5.445054394371222</v>
+      </c>
+      <c r="N152" t="n">
+        <v>3.695442878147484</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-11.585764077463</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-15.28120695561048</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>866</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>5.653326511383057</v>
+      </c>
+      <c r="E153" t="n">
+        <v>24.64033684537257</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>27.70944877671947</v>
+      </c>
+      <c r="H153" t="n">
+        <v>50</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-1.568422552111447</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>3.069111931346892</v>
+      </c>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>976</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>9.348240852355955</v>
+      </c>
+      <c r="E154" t="n">
+        <v>18.23087974597091</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>18.90712868900211</v>
+      </c>
+      <c r="H154" t="n">
+        <v>52</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-3.258812109103387</v>
+      </c>
+      <c r="J154" t="n">
+        <v>44</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>33</v>
+      </c>
+      <c r="M154" t="n">
+        <v>8.763376013954238</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.6762489430312044</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-9.467503732016668</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-10.14375267504787</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>992</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>10.11857223510742</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-4.295966519423188</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>10.16707886590469</v>
+      </c>
+      <c r="H155" t="n">
+        <v>37</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-13.33602741716437</v>
+      </c>
+      <c r="J155" t="n">
+        <v>51</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>17</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0.4831720592055186</v>
+      </c>
+      <c r="N155" t="n">
+        <v>14.46304538532788</v>
+      </c>
+      <c r="O155" t="n">
+        <v>4.779138578628706</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-9.683906806699172</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>10.43509674072266</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-27.73319062927482</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>6.825415531148662</v>
+      </c>
+      <c r="H156" t="n">
+        <v>27</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-33.1169532734467</v>
+      </c>
+      <c r="J156" t="n">
+        <v>48</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>7</v>
+      </c>
+      <c r="M156" t="n">
+        <v>-2.564752377812011</v>
+      </c>
+      <c r="N156" t="n">
+        <v>34.55860616042348</v>
+      </c>
+      <c r="O156" t="n">
+        <v>25.16843825146281</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-9.390167908960674</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1115</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>6.857694625854492</v>
+      </c>
+      <c r="E157" t="n">
+        <v>39.55307424166443</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>55.44827688350501</v>
+      </c>
+      <c r="H157" t="n">
+        <v>44</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-9.364164892019659</v>
+      </c>
+      <c r="J157" t="n">
+        <v>4</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>24</v>
+      </c>
+      <c r="M157" t="n">
+        <v>25.57944065859581</v>
+      </c>
+      <c r="N157" t="n">
+        <v>15.89520264184058</v>
+      </c>
+      <c r="O157" t="n">
+        <v>-13.97363358306862</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-29.8688362249092</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>9.765344619750977</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-12.02969108683394</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>13.76174927140967</v>
+      </c>
+      <c r="H158" t="n">
+        <v>20</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-20.54728918532893</v>
+      </c>
+      <c r="J158" t="n">
+        <v>45</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>31</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1.84218179701642</v>
+      </c>
+      <c r="N158" t="n">
+        <v>25.79144035824361</v>
+      </c>
+      <c r="O158" t="n">
+        <v>13.87187288385036</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-11.91956747439325</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1202</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>10.6598949432373</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-8.367375786274648</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>4.21516272876548</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-27.21475153271535</v>
+      </c>
+      <c r="J159" t="n">
+        <v>26</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>12</v>
+      </c>
+      <c r="M159" t="n">
+        <v>-6.70414601917568</v>
+      </c>
+      <c r="N159" t="n">
+        <v>12.58253851504013</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1.663229767098968</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-10.91930874794116</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>10.65133476257324</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-7.737179522764174</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4.298917548304866</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-27.15625605863187</v>
+      </c>
+      <c r="J160" t="n">
+        <v>25</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>11</v>
+      </c>
+      <c r="M160" t="n">
+        <v>-6.629166743518127</v>
+      </c>
+      <c r="N160" t="n">
+        <v>12.03609707106904</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1.108012779246047</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-10.92808429182299</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1255</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>9.827221870422363</v>
+      </c>
+      <c r="E161" t="n">
+        <v>36.8891083380424</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>39.25521729837917</v>
+      </c>
+      <c r="H161" t="n">
+        <v>52</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-3.223418327116677</v>
+      </c>
+      <c r="J161" t="n">
+        <v>14</v>
+      </c>
+      <c r="K161" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>2.366108960336774</v>
+      </c>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>10.78942584991455</v>
+      </c>
+      <c r="E162" t="n">
+        <v>34.15470658016379</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>35.50164400248556</v>
+      </c>
+      <c r="H162" t="n">
+        <v>52</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-11.85398062974713</v>
+      </c>
+      <c r="J162" t="n">
+        <v>4</v>
+      </c>
+      <c r="K162" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>1.346937422321766</v>
+      </c>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1281</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>11.55242538452148</v>
+      </c>
+      <c r="E163" t="n">
+        <v>26.42468842447775</v>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>34.56130490324492</v>
+      </c>
+      <c r="H163" t="n">
+        <v>37</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-4.835429846366821</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>8.136616478767163</v>
+      </c>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1337</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>15.01177978515625</v>
+      </c>
+      <c r="E164" t="n">
+        <v>14.26390407923465</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>19.31060313895672</v>
+      </c>
+      <c r="H164" t="n">
+        <v>40</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-2.180378335261091</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>20</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2.291526480669071</v>
+      </c>
+      <c r="N164" t="n">
+        <v>5.046699059722071</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-11.97237759856558</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-17.01907665828765</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1370</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>17.50139999389648</v>
+      </c>
+      <c r="E165" t="n">
+        <v>4.916620657832245</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>14.44054829259664</v>
+      </c>
+      <c r="H165" t="n">
+        <v>49</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-9.035910947739655</v>
+      </c>
+      <c r="J165" t="n">
+        <v>22</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>14</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-3.692080907834042</v>
+      </c>
+      <c r="N165" t="n">
+        <v>9.523927634764394</v>
+      </c>
+      <c r="O165" t="n">
+        <v>-8.608701565666287</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-18.13262920043068</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1409</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>17.74354553222656</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-21.98628187344615</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>12.87878217754541</v>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-25.53529143970601</v>
+      </c>
+      <c r="J166" t="n">
+        <v>51</v>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>18</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-3.01881340613205</v>
+      </c>
+      <c r="N166" t="n">
+        <v>34.86506405099156</v>
+      </c>
+      <c r="O166" t="n">
+        <v>18.9674684673141</v>
+      </c>
+      <c r="P166" t="n">
+        <v>-15.89759558367746</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1416</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>19.78136253356934</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-24.61123092553744</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.250346521411467</v>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-36.73710488067062</v>
+      </c>
+      <c r="J167" t="n">
+        <v>47</v>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>11</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-13.00952615486199</v>
+      </c>
+      <c r="N167" t="n">
+        <v>25.8615774469489</v>
+      </c>
+      <c r="O167" t="n">
+        <v>11.60170477067545</v>
+      </c>
+      <c r="P167" t="n">
+        <v>-14.25987267627346</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1478</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>15.28482055664062</v>
+      </c>
+      <c r="E168" t="n">
+        <v>15.35499188384617</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>31.17427487769475</v>
+      </c>
+      <c r="H168" t="n">
+        <v>49</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-12.34042316453097</v>
+      </c>
+      <c r="J168" t="n">
+        <v>6</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>5</v>
+      </c>
+      <c r="M168" t="n">
+        <v>-7.350110711126807</v>
+      </c>
+      <c r="N168" t="n">
+        <v>15.81928299384857</v>
+      </c>
+      <c r="O168" t="n">
+        <v>-22.70510259497298</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-38.52438558882155</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1496</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>16.33731460571289</v>
+      </c>
+      <c r="E169" t="n">
+        <v>13.20111545699018</v>
+      </c>
+      <c r="F169" t="b">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>22.72367286432187</v>
+      </c>
+      <c r="H169" t="n">
+        <v>31</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-6.695628029050258</v>
+      </c>
+      <c r="J169" t="n">
+        <v>6</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>35</v>
+      </c>
+      <c r="M169" t="n">
+        <v>8.152967418671601</v>
+      </c>
+      <c r="N169" t="n">
+        <v>9.522557407331687</v>
+      </c>
+      <c r="O169" t="n">
+        <v>-5.048148038318578</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-14.57070544565027</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1506</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>18.20602607727051</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.4918178255230036</v>
+      </c>
+      <c r="F170" t="b">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>10.12701204773882</v>
+      </c>
+      <c r="H170" t="n">
+        <v>21</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-6.705954423545521</v>
+      </c>
+      <c r="J170" t="n">
+        <v>26</v>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>25</v>
+      </c>
+      <c r="M170" t="n">
+        <v>-2.948120212450215</v>
+      </c>
+      <c r="N170" t="n">
+        <v>9.635194222215818</v>
+      </c>
+      <c r="O170" t="n">
+        <v>-3.439938037973218</v>
+      </c>
+      <c r="P170" t="n">
+        <v>-13.07513226018904</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1519</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>19.44126319885254</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-6.157176703093267</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>3.129885781874188</v>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-12.63356659256364</v>
+      </c>
+      <c r="J171" t="n">
+        <v>13</v>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>12</v>
+      </c>
+      <c r="M171" t="n">
+        <v>-9.114493426304652</v>
+      </c>
+      <c r="N171" t="n">
+        <v>9.287062484967455</v>
+      </c>
+      <c r="O171" t="n">
+        <v>-2.957316723211385</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-12.24437920817884</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1551</v>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="n">
+        <v>19.11257362365723</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-10.01057532798037</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>5.022224724336099</v>
+      </c>
+      <c r="H172" t="n">
+        <v>43</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-12.84434394327215</v>
+      </c>
+      <c r="J172" t="n">
+        <v>52</v>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>16</v>
+      </c>
+      <c r="M172" t="n">
+        <v>-6.356423780746116</v>
+      </c>
+      <c r="N172" t="n">
+        <v>15.03280005231647</v>
+      </c>
+      <c r="O172" t="n">
+        <v>3.654151547234253</v>
+      </c>
+      <c r="P172" t="n">
+        <v>-11.37864850508221</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1591</v>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>19.47140312194824</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.005769632202128169</v>
+      </c>
+      <c r="F173" t="b">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>5.47764690683445</v>
+      </c>
+      <c r="H173" t="n">
+        <v>43</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-19.68040551653662</v>
+      </c>
+      <c r="J173" t="n">
+        <v>22</v>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>9</v>
+      </c>
+      <c r="M173" t="n">
+        <v>-4.409801400247597</v>
+      </c>
+      <c r="N173" t="n">
+        <v>5.471877274632322</v>
+      </c>
+      <c r="O173" t="n">
+        <v>-4.415571032449725</v>
+      </c>
+      <c r="P173" t="n">
+        <v>-9.887448307082046</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1634</v>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="n">
+        <v>19.51458358764648</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-43.57491285043821</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>5.244253563146837</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-47.76141099981926</v>
+      </c>
+      <c r="J174" t="n">
+        <v>44</v>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>11</v>
+      </c>
+      <c r="M174" t="n">
+        <v>-3.017223095254525</v>
+      </c>
+      <c r="N174" t="n">
+        <v>48.81916641358504</v>
+      </c>
+      <c r="O174" t="n">
+        <v>40.55768975518369</v>
+      </c>
+      <c r="P174" t="n">
+        <v>-8.261476658401362</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1712</v>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="n">
+        <v>16.67200469970703</v>
+      </c>
+      <c r="E175" t="n">
+        <v>28.57916066616237</v>
+      </c>
+      <c r="F175" t="b">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>36.11023286946737</v>
+      </c>
+      <c r="H175" t="n">
+        <v>30</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-6.98299168538813</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>24</v>
+      </c>
+      <c r="M175" t="n">
+        <v>24.21666247947015</v>
+      </c>
+      <c r="N175" t="n">
+        <v>7.531072203304994</v>
+      </c>
+      <c r="O175" t="n">
+        <v>-4.362498186692221</v>
+      </c>
+      <c r="P175" t="n">
+        <v>-11.89357038999722</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1719</v>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="n">
+        <v>17.79143333435059</v>
+      </c>
+      <c r="E176" t="n">
+        <v>25.34389812855823</v>
+      </c>
+      <c r="F176" t="b">
+        <v>1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>27.54624090329419</v>
+      </c>
+      <c r="H176" t="n">
+        <v>23</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-5.369128058016235</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>17</v>
+      </c>
+      <c r="M176" t="n">
+        <v>16.401008379758</v>
+      </c>
+      <c r="N176" t="n">
+        <v>2.202342774735957</v>
+      </c>
+      <c r="O176" t="n">
+        <v>-8.94288974880023</v>
+      </c>
+      <c r="P176" t="n">
+        <v>-11.14523252353619</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1771</v>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="n">
+        <v>22.30047607421875</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-11.087044059326</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1.373225748210197</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-24.19274901127429</v>
+      </c>
+      <c r="J177" t="n">
+        <v>23</v>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>4</v>
+      </c>
+      <c r="M177" t="n">
+        <v>-4.612691620298272</v>
+      </c>
+      <c r="N177" t="n">
+        <v>12.4602698075362</v>
+      </c>
+      <c r="O177" t="n">
+        <v>6.474352439027727</v>
+      </c>
+      <c r="P177" t="n">
+        <v>-5.98591736850847</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="n">
+        <v>19.75690650939941</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11.02651021513262</v>
+      </c>
+      <c r="F178" t="b">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>13.70132095856663</v>
+      </c>
+      <c r="H178" t="n">
+        <v>43</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-6.957597654832861</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>9</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0.2327020752132599</v>
+      </c>
+      <c r="N178" t="n">
+        <v>2.67481074343401</v>
+      </c>
+      <c r="O178" t="n">
+        <v>-10.79380813991937</v>
+      </c>
+      <c r="P178" t="n">
+        <v>-13.46861888335338</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1849</v>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="n">
+        <v>20.1680965423584</v>
+      </c>
+      <c r="E179" t="n">
+        <v>31.62876371621383</v>
+      </c>
+      <c r="F179" t="b">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>34.56918151501961</v>
+      </c>
+      <c r="H179" t="n">
+        <v>50</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-0.6013801240022469</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>19</v>
+      </c>
+      <c r="M179" t="n">
+        <v>3.393481169798344</v>
+      </c>
+      <c r="N179" t="n">
+        <v>2.940417798805782</v>
+      </c>
+      <c r="O179" t="n">
+        <v>-28.23528254641549</v>
+      </c>
+      <c r="P179" t="n">
+        <v>-31.17570034522127</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1880</v>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="n">
+        <v>24.91641998291016</v>
+      </c>
+      <c r="E180" t="n">
+        <v>18.33632643312832</v>
+      </c>
+      <c r="F180" t="b">
+        <v>1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>25.16708237022374</v>
+      </c>
+      <c r="H180" t="n">
+        <v>41</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-2.817921524732284</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>10</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2.059252658959612</v>
+      </c>
+      <c r="N180" t="n">
+        <v>6.830755937095425</v>
+      </c>
+      <c r="O180" t="n">
+        <v>-16.27707377416871</v>
+      </c>
+      <c r="P180" t="n">
+        <v>-23.10782971126413</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1897</v>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="n">
+        <v>27.03811454772949</v>
+      </c>
+      <c r="E181" t="n">
+        <v>6.774289828149617</v>
+      </c>
+      <c r="F181" t="b">
+        <v>1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>15.34515792018853</v>
+      </c>
+      <c r="H181" t="n">
+        <v>24</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-7.794204036472495</v>
+      </c>
+      <c r="J181" t="n">
+        <v>44</v>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>44</v>
+      </c>
+      <c r="M181" t="n">
+        <v>-5.191905421078323</v>
+      </c>
+      <c r="N181" t="n">
+        <v>8.570868092038918</v>
+      </c>
+      <c r="O181" t="n">
+        <v>-11.96619524922794</v>
+      </c>
+      <c r="P181" t="n">
+        <v>-20.53706334126686</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1909</v>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="n">
+        <v>28.1685619354248</v>
+      </c>
+      <c r="E182" t="n">
+        <v>16.97673667474267</v>
+      </c>
+      <c r="F182" t="b">
+        <v>1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>18.43591291814212</v>
+      </c>
+      <c r="H182" t="n">
+        <v>52</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-11.49456337381774</v>
+      </c>
+      <c r="J182" t="n">
+        <v>32</v>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>32</v>
+      </c>
+      <c r="M182" t="n">
+        <v>-8.996698974075731</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1.459176243399448</v>
+      </c>
+      <c r="O182" t="n">
+        <v>-25.97343564881841</v>
+      </c>
+      <c r="P182" t="n">
+        <v>-27.43261189221785</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="n">
+        <v>29.77157783508301</v>
+      </c>
+      <c r="E183" t="n">
+        <v>20.96704433841222</v>
+      </c>
+      <c r="F183" t="b">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>23.69538241059717</v>
+      </c>
+      <c r="H183" t="n">
+        <v>51</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-16.26003542584901</v>
+      </c>
+      <c r="J183" t="n">
+        <v>22</v>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>22</v>
+      </c>
+      <c r="M183" t="n">
+        <v>-13.89666562260293</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2.728338072184954</v>
+      </c>
+      <c r="O183" t="n">
+        <v>-34.86370996101515</v>
+      </c>
+      <c r="P183" t="n">
+        <v>-37.5920480332001</v>
       </c>
     </row>
   </sheetData>
@@ -7211,7 +9331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7424,40 +9544,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>70.45454545454545</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.68806383152819</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.502144063331</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22.52166090385983</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21.95837343879366</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-13.35119015720127</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.27030960726547</v>
+      </c>
+      <c r="J4" t="n">
+        <v>77.27272727272727</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19.20588235294118</v>
+      </c>
+      <c r="L4" t="n">
+        <v>35.29411764705883</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-4.92712449504491</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>77.2</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>15.36766694298712</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>17.03237490066489</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>23.61352893527239</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>27.66140058994647</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-11.17325582713331</v>
       </c>
     </row>
